--- a/src/test/resources/excel/枚举/装备ID.xlsx
+++ b/src/test/resources/excel/枚举/装备ID.xlsx
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,13 +65,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -101,6 +94,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -117,84 +118,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +141,72 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,19 +223,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,157 +379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,15 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,6 +430,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -453,16 +459,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -494,17 +500,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,124 +513,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,22 +639,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,7 +989,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="2"/>

--- a/src/test/resources/excel/枚举/装备ID.xlsx
+++ b/src/test/resources/excel/枚举/装备ID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>装备</t>
   </si>
@@ -36,15 +36,27 @@
   <si>
     <t>剑</t>
   </si>
+  <si>
+    <t>Equip1</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>Equip2</t>
+  </si>
+  <si>
+    <t>铠甲</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -65,17 +77,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,24 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,22 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -144,6 +139,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,12 +154,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,30 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,8 +204,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,49 +229,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,133 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +442,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -440,21 +482,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +503,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -484,177 +520,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,15 +996,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="10.1428571428571" customWidth="1"/>
@@ -1032,6 +1044,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/test/resources/excel/枚举/装备ID.xlsx
+++ b/src/test/resources/excel/枚举/装备ID.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11660" tabRatio="826"/>
+    <workbookView windowWidth="28800" windowHeight="11660" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ID" sheetId="2" r:id="rId1"/>
+    <sheet name="角色装备" sheetId="2" r:id="rId1"/>
+    <sheet name="宠物装备" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>装备</t>
   </si>
@@ -47,6 +48,12 @@
   </si>
   <si>
     <t>铠甲</t>
+  </si>
+  <si>
+    <t>PetEquip1</t>
+  </si>
+  <si>
+    <t>PetEquip2</t>
   </si>
 </sst>
 </file>
@@ -54,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,29 +84,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,18 +106,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,6 +145,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -160,6 +167,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -167,8 +205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,45 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,19 +236,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,163 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,24 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,17 +445,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,153 +512,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,10 +1005,10 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A5"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1070,4 +1077,57 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.9285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>4001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>4002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>